--- a/平成31年度/シースリーカップ/4.参加チームメンバー表/シースリーカップ メンバー表(内野オールスターズ）.xlsx
+++ b/平成31年度/シースリーカップ/4.参加チームメンバー表/シースリーカップ メンバー表(内野オールスターズ）.xlsx
@@ -1,20 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\4.参加チームメンバー表\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="8280"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8280"/>
   </bookViews>
   <sheets>
     <sheet name="参加申込書" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">参加申込書!$A$1:$I$32</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="56">
   <si>
     <t>2019　シースリーカップ　メンバ－表</t>
   </si>
@@ -187,14 +195,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_-&quot;\&quot;* #,##0.00_-\ ;\-&quot;\&quot;* #,##0.00_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-&quot;\&quot;* #,##0_-\ ;\-&quot;\&quot;* #,##0_-\ ;_-&quot;\&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_-&quot;¥&quot;* #,##0.00_-\ ;\-&quot;¥&quot;* #,##0.00_-\ ;_-&quot;¥&quot;* &quot;-&quot;??_-\ ;_-@_-"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="30" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -399,6 +405,17 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="メイリオ"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
@@ -1130,13 +1147,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1146,55 +1160,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="39" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="28" fillId="0" borderId="1" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,7 +1199,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="38" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1297,281 +1290,286 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="72">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="54" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="11" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="11" applyFont="1" applyAlignment="1">
+  <cellXfs count="73">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="46" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="20" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="46" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="46" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="46" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="27" fillId="0" borderId="1" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="28" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="54" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="54" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="54" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="27" fillId="0" borderId="1" xfId="54" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="11" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="11" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="11" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="21" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="26" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="30" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="47">
+    <cellStyle name="20% - アクセント 1" xfId="14"/>
+    <cellStyle name="20% - アクセント 2" xfId="2"/>
+    <cellStyle name="20% - アクセント 3" xfId="15"/>
+    <cellStyle name="20% - アクセント 4" xfId="16"/>
+    <cellStyle name="20% - アクセント 5" xfId="18"/>
+    <cellStyle name="20% - アクセント 6" xfId="4"/>
+    <cellStyle name="40% - アクセント 1" xfId="21"/>
+    <cellStyle name="40% - アクセント 2" xfId="3"/>
+    <cellStyle name="40% - アクセント 3" xfId="23"/>
+    <cellStyle name="40% - アクセント 4" xfId="24"/>
+    <cellStyle name="40% - アクセント 5" xfId="11"/>
+    <cellStyle name="40% - アクセント 6" xfId="25"/>
+    <cellStyle name="60% - アクセント 1" xfId="19"/>
+    <cellStyle name="60% - アクセント 2" xfId="5"/>
+    <cellStyle name="60% - アクセント 3" xfId="26"/>
+    <cellStyle name="60% - アクセント 4" xfId="27"/>
+    <cellStyle name="60% - アクセント 5" xfId="28"/>
+    <cellStyle name="60% - アクセント 6" xfId="1"/>
+    <cellStyle name="アクセント 1" xfId="29"/>
+    <cellStyle name="アクセント 2" xfId="6"/>
+    <cellStyle name="アクセント 3" xfId="30"/>
+    <cellStyle name="アクセント 4" xfId="8"/>
+    <cellStyle name="アクセント 5" xfId="31"/>
+    <cellStyle name="アクセント 6" xfId="32"/>
+    <cellStyle name="タイトル" xfId="35"/>
+    <cellStyle name="チェック セル" xfId="9"/>
+    <cellStyle name="どちらでもない" xfId="37"/>
+    <cellStyle name="ハイパーリンク" xfId="20"/>
+    <cellStyle name="メモ" xfId="17"/>
+    <cellStyle name="リンク セル" xfId="36"/>
+    <cellStyle name="悪い" xfId="38"/>
+    <cellStyle name="計算" xfId="39"/>
+    <cellStyle name="警告文" xfId="41"/>
+    <cellStyle name="桁区切り[0]" xfId="12"/>
+    <cellStyle name="見出し 1" xfId="33"/>
+    <cellStyle name="見出し 2" xfId="43"/>
+    <cellStyle name="見出し 3" xfId="40"/>
+    <cellStyle name="見出し 4" xfId="44"/>
+    <cellStyle name="集計" xfId="22"/>
+    <cellStyle name="出力" xfId="34"/>
+    <cellStyle name="説明文" xfId="45"/>
+    <cellStyle name="通貨[0]" xfId="13"/>
+    <cellStyle name="入力" xfId="10"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="桁区切り" xfId="1" builtinId="3"/>
-    <cellStyle name="60% - アクセント 6" xfId="2"/>
-    <cellStyle name="20% - アクセント 2" xfId="3"/>
-    <cellStyle name="40% - アクセント 2" xfId="4"/>
-    <cellStyle name="通貨" xfId="5" builtinId="4"/>
-    <cellStyle name="20% - アクセント 6" xfId="6"/>
-    <cellStyle name="60% - アクセント 2" xfId="7"/>
-    <cellStyle name="桁区切り[0]" xfId="8" builtinId="6"/>
-    <cellStyle name="アクセント 2" xfId="9"/>
-    <cellStyle name="パーセント" xfId="10" builtinId="5"/>
-    <cellStyle name="標準" xfId="11"/>
-    <cellStyle name="アクセント 4" xfId="12"/>
-    <cellStyle name="通貨[0]" xfId="13" builtinId="7"/>
-    <cellStyle name="チェック セル" xfId="14"/>
-    <cellStyle name="入力" xfId="15"/>
-    <cellStyle name="桁区切り" xfId="16"/>
-    <cellStyle name="40% - アクセント 5" xfId="17"/>
-    <cellStyle name="通貨" xfId="18"/>
-    <cellStyle name="桁区切り[0]" xfId="19"/>
-    <cellStyle name="パーセント" xfId="20"/>
-    <cellStyle name="通貨[0]" xfId="21"/>
-    <cellStyle name="20% - アクセント 1" xfId="22"/>
-    <cellStyle name="20% - アクセント 3" xfId="23"/>
-    <cellStyle name="20% - アクセント 4" xfId="24"/>
-    <cellStyle name="メモ" xfId="25"/>
-    <cellStyle name="20% - アクセント 5" xfId="26"/>
-    <cellStyle name="60% - アクセント 1" xfId="27"/>
-    <cellStyle name="ハイパーリンク" xfId="28"/>
-    <cellStyle name="40% - アクセント 1" xfId="29"/>
-    <cellStyle name="集計" xfId="30"/>
-    <cellStyle name="40% - アクセント 3" xfId="31"/>
-    <cellStyle name="40% - アクセント 4" xfId="32"/>
-    <cellStyle name="40% - アクセント 6" xfId="33"/>
-    <cellStyle name="60% - アクセント 3" xfId="34"/>
-    <cellStyle name="60% - アクセント 4" xfId="35"/>
-    <cellStyle name="60% - アクセント 5" xfId="36"/>
-    <cellStyle name="アクセント 1" xfId="37"/>
-    <cellStyle name="アクセント 3" xfId="38"/>
-    <cellStyle name="アクセント 5" xfId="39"/>
-    <cellStyle name="アクセント 6" xfId="40"/>
-    <cellStyle name="見出し 1" xfId="41"/>
-    <cellStyle name="出力" xfId="42"/>
-    <cellStyle name="タイトル" xfId="43"/>
-    <cellStyle name="リンク セル" xfId="44"/>
-    <cellStyle name="どちらでもない" xfId="45"/>
-    <cellStyle name="悪い" xfId="46"/>
-    <cellStyle name="計算" xfId="47"/>
-    <cellStyle name="見出し 3" xfId="48"/>
-    <cellStyle name="警告文" xfId="49"/>
-    <cellStyle name="良い" xfId="50"/>
-    <cellStyle name="見出し 2" xfId="51"/>
-    <cellStyle name="見出し 4" xfId="52"/>
-    <cellStyle name="説明文" xfId="53"/>
-    <cellStyle name="標準 2" xfId="54"/>
+    <cellStyle name="標準 2" xfId="46"/>
+    <cellStyle name="標準 3" xfId="7"/>
+    <cellStyle name="良い" xfId="42"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1621,71 +1619,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1870,6 +1868,7 @@
           </a:gdLst>
           <a:ahLst/>
           <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst>
             <a:path w="21600" h="21600"/>
           </a:pathLst>
@@ -1904,797 +1903,800 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="4.875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9" style="2"/>
-    <col min="5" max="5" width="10" style="2" customWidth="1"/>
-    <col min="6" max="7" width="11.125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="9" style="2"/>
-    <col min="9" max="9" width="12.25" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.25" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="10" style="5" customWidth="1"/>
+    <col min="6" max="7" width="11.125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9" style="5"/>
+    <col min="9" max="9" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="1:9">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" ht="21" customHeight="1" spans="1:9">
-      <c r="A3" s="5" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="37"/>
+      <c r="C3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:9">
-      <c r="A4" s="12" t="s">
+      <c r="H3" s="10"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="14" t="s">
+      <c r="B4" s="39"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="65"/>
-    </row>
-    <row r="5" ht="21" customHeight="1" spans="1:9">
-      <c r="A5" s="12" t="s">
+      <c r="H4" s="13"/>
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="17" t="s">
+      <c r="B5" s="39"/>
+      <c r="C5" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="66"/>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:9">
-      <c r="A6" s="10" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
+    </row>
+    <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="7" t="s">
+      <c r="B6" s="43"/>
+      <c r="C6" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="19" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7" ht="20.1" customHeight="1" spans="1:9">
-      <c r="A7" s="21"/>
-      <c r="B7" s="22"/>
-      <c r="I7" s="63"/>
-    </row>
-    <row r="8" ht="20.1" customHeight="1" spans="8:9">
-      <c r="H8" s="23"/>
-      <c r="I8" s="23"/>
-    </row>
-    <row r="9" ht="34.5" customHeight="1" spans="1:9">
-      <c r="A9" s="24" t="s">
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+    </row>
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="I7" s="33"/>
+    </row>
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26" t="s">
+      <c r="B9" s="47"/>
+      <c r="C9" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" ht="21" customHeight="1" spans="1:9">
-      <c r="A10" s="28" t="s">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="50"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="7" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="19" t="s">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="68"/>
-    </row>
-    <row r="11" ht="21" customHeight="1" spans="1:9">
-      <c r="A11" s="29" t="s">
+      <c r="H10" s="7"/>
+      <c r="I10" s="36"/>
+    </row>
+    <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="30"/>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="53"/>
+      <c r="C11" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="69"/>
-    </row>
-    <row r="12" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A12" s="36" t="s">
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="39" t="s">
+      <c r="C12" s="58"/>
+      <c r="D12" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="19" t="s">
+      <c r="E12" s="60"/>
+      <c r="F12" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="G12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="H12" s="41" t="s">
+      <c r="H12" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="70"/>
-    </row>
-    <row r="13" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A13" s="42">
+      <c r="I12" s="62"/>
+    </row>
+    <row r="13" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="21">
         <v>4</v>
       </c>
-      <c r="B13" s="43" t="s">
+      <c r="B13" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="45" t="s">
+      <c r="C13" s="64"/>
+      <c r="D13" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10">
+      <c r="E13" s="39"/>
+      <c r="F13" s="9">
         <v>145</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>6</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I13" s="71"/>
-    </row>
-    <row r="14" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A14" s="42">
+      <c r="I13" s="66"/>
+    </row>
+    <row r="14" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="21">
         <v>5</v>
       </c>
-      <c r="B14" s="43" t="s">
+      <c r="B14" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="45" t="s">
+      <c r="C14" s="64"/>
+      <c r="D14" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10">
+      <c r="E14" s="39"/>
+      <c r="F14" s="9">
         <v>146</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>6</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I14" s="71"/>
-    </row>
-    <row r="15" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A15" s="42">
+      <c r="I14" s="66"/>
+    </row>
+    <row r="15" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="21">
         <v>6</v>
       </c>
-      <c r="B15" s="43" t="s">
+      <c r="B15" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="45" t="s">
+      <c r="C15" s="64"/>
+      <c r="D15" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="10">
+      <c r="E15" s="39"/>
+      <c r="F15" s="9">
         <v>146</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>6</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="71"/>
-    </row>
-    <row r="16" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A16" s="42">
+      <c r="I15" s="66"/>
+    </row>
+    <row r="16" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="21">
         <v>7</v>
       </c>
-      <c r="B16" s="43" t="s">
+      <c r="B16" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="45" t="s">
+      <c r="C16" s="64"/>
+      <c r="D16" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="10">
+      <c r="E16" s="39"/>
+      <c r="F16" s="9">
         <v>146</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>6</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I16" s="71"/>
-    </row>
-    <row r="17" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A17" s="42">
+      <c r="I16" s="66"/>
+    </row>
+    <row r="17" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="21">
         <v>8</v>
       </c>
-      <c r="B17" s="43" t="s">
+      <c r="B17" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="45" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="10">
+      <c r="E17" s="39"/>
+      <c r="F17" s="9">
         <v>134</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>5</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I17" s="71"/>
-    </row>
-    <row r="18" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A18" s="42">
+      <c r="I17" s="66"/>
+    </row>
+    <row r="18" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="21">
         <v>9</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="45" t="s">
+      <c r="C18" s="64"/>
+      <c r="D18" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="10">
+      <c r="E18" s="39"/>
+      <c r="F18" s="9">
         <v>132</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="9">
         <v>5</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I18" s="71"/>
-    </row>
-    <row r="19" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A19" s="42">
+      <c r="I18" s="66"/>
+    </row>
+    <row r="19" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="21">
         <v>10</v>
       </c>
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="63" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="45" t="s">
+      <c r="C19" s="64"/>
+      <c r="D19" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="10">
+      <c r="E19" s="39"/>
+      <c r="F19" s="9">
         <v>140</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="9">
         <v>5</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I19" s="71"/>
-    </row>
-    <row r="20" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A20" s="42">
+      <c r="I19" s="66"/>
+    </row>
+    <row r="20" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="21">
         <v>11</v>
       </c>
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="63" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="45" t="s">
+      <c r="C20" s="64"/>
+      <c r="D20" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="10">
+      <c r="E20" s="39"/>
+      <c r="F20" s="9">
         <v>141</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="9">
         <v>5</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I20" s="71"/>
-    </row>
-    <row r="21" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A21" s="42">
+      <c r="I20" s="66"/>
+    </row>
+    <row r="21" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="21">
         <v>12</v>
       </c>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="45" t="s">
+      <c r="C21" s="64"/>
+      <c r="D21" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="10">
+      <c r="E21" s="39"/>
+      <c r="F21" s="9">
         <v>145</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>5</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I21" s="71"/>
-    </row>
-    <row r="22" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A22" s="42">
+      <c r="I21" s="66"/>
+    </row>
+    <row r="22" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="21">
         <v>13</v>
       </c>
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="45" t="s">
+      <c r="C22" s="64"/>
+      <c r="D22" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="10">
+      <c r="E22" s="39"/>
+      <c r="F22" s="9">
         <v>133</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>4</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I22" s="71"/>
-    </row>
-    <row r="23" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A23" s="42">
+      <c r="I22" s="66"/>
+    </row>
+    <row r="23" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="21">
         <v>14</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="45" t="s">
+      <c r="C23" s="68"/>
+      <c r="D23" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" s="10">
+      <c r="E23" s="39"/>
+      <c r="F23" s="9">
         <v>144</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>5</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I23" s="71"/>
-    </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A24" s="42">
+      <c r="I23" s="66"/>
+    </row>
+    <row r="24" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="21">
         <v>15</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="67" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="47"/>
-      <c r="D24" s="45" t="s">
+      <c r="C24" s="68"/>
+      <c r="D24" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="13"/>
-      <c r="F24" s="10">
+      <c r="E24" s="39"/>
+      <c r="F24" s="9">
         <v>135</v>
       </c>
-      <c r="G24" s="10">
+      <c r="G24" s="9">
         <v>5</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A25" s="42">
+      <c r="I24" s="66"/>
+    </row>
+    <row r="25" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="21">
         <v>16</v>
       </c>
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="45" t="s">
+      <c r="C25" s="64"/>
+      <c r="D25" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="13"/>
-      <c r="F25" s="10">
+      <c r="E25" s="39"/>
+      <c r="F25" s="9">
         <v>138</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>5</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="I25" s="71"/>
-    </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A26" s="42">
+      <c r="I25" s="66"/>
+    </row>
+    <row r="26" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="21">
         <v>17</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="63" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="45" t="s">
+      <c r="C26" s="64"/>
+      <c r="D26" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="13"/>
-      <c r="F26" s="10">
+      <c r="E26" s="39"/>
+      <c r="F26" s="9">
         <v>137</v>
       </c>
-      <c r="G26" s="10">
+      <c r="G26" s="9">
         <v>4</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A27" s="42">
+      <c r="I26" s="66"/>
+    </row>
+    <row r="27" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="21">
         <v>18</v>
       </c>
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="63" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="45" t="s">
+      <c r="C27" s="64"/>
+      <c r="D27" s="65" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="10">
+      <c r="E27" s="39"/>
+      <c r="F27" s="9">
         <v>160</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="9">
         <v>6</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="I27" s="71"/>
-    </row>
-    <row r="28" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A28" s="42">
+      <c r="I27" s="66"/>
+    </row>
+    <row r="28" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="21">
         <v>19</v>
       </c>
-      <c r="B28" s="43"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="12"/>
-      <c r="I28" s="71"/>
-    </row>
-    <row r="29" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A29" s="42">
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="66"/>
+    </row>
+    <row r="29" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="21">
         <v>20</v>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="12"/>
-      <c r="I29" s="71"/>
-    </row>
-    <row r="30" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A30" s="42">
+      <c r="B29" s="67"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="66"/>
+    </row>
+    <row r="30" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="21">
         <v>21</v>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="12"/>
-      <c r="I30" s="71"/>
-    </row>
-    <row r="31" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A31" s="42">
+      <c r="B30" s="67"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="66"/>
+    </row>
+    <row r="31" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="21">
         <v>22</v>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="12"/>
-      <c r="I31" s="71"/>
-    </row>
-    <row r="32" ht="22.5" customHeight="1" spans="1:9">
-      <c r="A32" s="48">
+      <c r="B31" s="67"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="39"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="66"/>
+    </row>
+    <row r="32" spans="1:9" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="22">
         <v>23</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="52"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53"/>
-      <c r="H32" s="12"/>
-      <c r="I32" s="71"/>
-    </row>
-    <row r="33" ht="11.25" customHeight="1" spans="1:9">
-      <c r="A33" s="54"/>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="54"/>
-      <c r="G33" s="54"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-    </row>
-    <row r="34" s="1" customFormat="1" spans="1:9">
-      <c r="A34" s="56"/>
-      <c r="B34" s="57"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="56"/>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
-      <c r="G34" s="58"/>
-      <c r="H34" s="58"/>
-      <c r="I34" s="56"/>
-    </row>
-    <row r="35" s="1" customFormat="1" spans="1:9">
-      <c r="A35" s="56"/>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="58"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="56"/>
-    </row>
-    <row r="36" s="1" customFormat="1" spans="1:9">
-      <c r="A36" s="56"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="58"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="56"/>
-    </row>
-    <row r="37" s="1" customFormat="1" spans="1:9">
-      <c r="A37" s="56"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="58"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="56"/>
-    </row>
-    <row r="38" s="1" customFormat="1" spans="1:9">
-      <c r="A38" s="56"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
-      <c r="G38" s="58"/>
-      <c r="H38" s="58"/>
-      <c r="I38" s="56"/>
-    </row>
-    <row r="39" s="1" customFormat="1" ht="19.5" spans="1:9">
-      <c r="A39" s="56"/>
-      <c r="B39" s="56"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="60"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="56"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="61"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="62"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="63"/>
-      <c r="G40" s="63"/>
-      <c r="H40" s="63"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="61"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="62"/>
-      <c r="E41" s="63"/>
-      <c r="F41" s="63"/>
-      <c r="G41" s="63"/>
-      <c r="H41" s="63"/>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="64"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="62"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="72"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="66"/>
+    </row>
+    <row r="33" spans="1:9" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="26"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="28"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="28"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="26"/>
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="28"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="26"/>
+    </row>
+    <row r="36" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="26"/>
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="28"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="28"/>
+      <c r="H36" s="28"/>
+      <c r="I36" s="26"/>
+    </row>
+    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="26"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="26"/>
+    </row>
+    <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="26"/>
+      <c r="B38" s="26"/>
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="26"/>
+    </row>
+    <row r="39" spans="1:9" s="4" customFormat="1" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="28"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="26"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="33"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="33"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="31"/>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="34"/>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="77">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:I9"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="C5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:I9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="H32:I32"/>
   </mergeCells>
+  <phoneticPr fontId="29"/>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1" display="k.k_0428-basket.pian@docomo.ne.jp"/>
+    <hyperlink ref="G4" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.707638888888889" right="0.707638888888889" top="0.354166666666667" bottom="0.15625" header="0.313888888888889" footer="0.313888888888889"/>
-  <pageSetup paperSize="9" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1"/>
+  <pageMargins left="0.70763888888888904" right="0.70763888888888904" top="0.35416666666666702" bottom="0.15625" header="0.31388888888888899" footer="0.31388888888888899"/>
+  <pageSetup paperSize="9" scale="96" firstPageNumber="4294963191" orientation="portrait" useFirstPageNumber="1" r:id="rId2"/>
   <headerFooter alignWithMargins="0"/>
+  <rowBreaks count="1" manualBreakCount="1">
+    <brk id="32" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>